--- a/Mars_Task02/Mars_Task02/ExcelData/TestDataShareSkills.xlsx
+++ b/Mars_Task02/Mars_Task02/ExcelData/TestDataShareSkills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\Mars_Task02\Mars_Task02\Mars_Task02\Mars_Task02\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27628FA5-4165-4508-AA06-4A7D96D8A288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D40B00-2E89-400E-AE00-92E6FF28ACB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5E1CF177-07B9-4743-9DAF-582026D82BD2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>Title</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>Tendtime</t>
+  </si>
+  <si>
+    <t>18.00 PM</t>
+  </si>
+  <si>
+    <t>16.00 PM</t>
   </si>
 </sst>
 </file>
@@ -203,7 +209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -213,9 +219,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -542,129 +545,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CD0D1E-ADF5-4467-86BD-457126A76144}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" customWidth="1"/>
-    <col min="5" max="5" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="9">
-        <v>45052</v>
-      </c>
-      <c r="G2" s="9">
-        <v>45058</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="D2" s="8">
+        <v>45056</v>
+      </c>
+      <c r="E2" s="8">
+        <v>45148</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="F10" s="5"/>
+    <row r="10" spans="1:12">
+      <c r="D10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mars_Task02/Mars_Task02/ExcelData/TestDataShareSkills.xlsx
+++ b/Mars_Task02/Mars_Task02/ExcelData/TestDataShareSkills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\Mars_Task02\Mars_Task02\Mars_Task02\Mars_Task02\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D40B00-2E89-400E-AE00-92E6FF28ACB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEB371D-3CF3-4E66-8BD2-53ED57781EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5E1CF177-07B9-4743-9DAF-582026D82BD2}"/>
   </bookViews>
@@ -548,7 +548,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -618,7 +618,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="8">
-        <v>45056</v>
+        <v>45087</v>
       </c>
       <c r="E2" s="8">
         <v>45148</v>
